--- a/models/report/confusion_matrix.xlsx
+++ b/models/report/confusion_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubbednarski/Coding/PyCharmProjects/PSiO/flags/models/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9835F7A-A982-C84E-8E96-981822B78051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D0518-9497-4946-A8C3-B2B0EA443969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4420" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{8B347BB2-54D5-274E-A80F-2E3C00CEB5E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Austria</t>
   </si>
@@ -118,6 +118,12 @@
   <si>
     <t>Sweden</t>
   </si>
+  <si>
+    <t>PRECISION</t>
+  </si>
+  <si>
+    <t>RECALL</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +134,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +157,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -268,7 +282,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -283,6 +297,10 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
@@ -605,7 +623,7 @@
   <dimension ref="E6:AG34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="AJ18" sqref="AJ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,6 +718,9 @@
       <c r="AF6" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="AG6" s="15" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="5:33" x14ac:dyDescent="0.2">
       <c r="E7" s="1" t="s">
@@ -3105,6 +3126,9 @@
       </c>
     </row>
     <row r="34" spans="5:33" x14ac:dyDescent="0.2">
+      <c r="E34" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="F34" s="12">
         <v>16.137557959999999</v>
       </c>

--- a/models/report/confusion_matrix.xlsx
+++ b/models/report/confusion_matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubbednarski/Coding/PyCharmProjects/PSiO/flags/models/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0D0518-9497-4946-A8C3-B2B0EA443969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D77ADF-A4C5-8F4B-9726-CE5741D6F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4420" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{8B347BB2-54D5-274E-A80F-2E3C00CEB5E0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>Austria</t>
   </si>
@@ -124,6 +124,12 @@
   <si>
     <t>RECALL</t>
   </si>
+  <si>
+    <t>ACTUAL</t>
+  </si>
+  <si>
+    <t>P R E D I C T E D</t>
+  </si>
 </sst>
 </file>
 
@@ -131,8 +137,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -282,7 +288,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -294,14 +300,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -620,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259450F4-55AB-D64C-8BAD-F3C070991E40}">
-  <dimension ref="E6:AG34"/>
+  <dimension ref="D5:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="113" workbookViewId="0">
-      <selection activeCell="AJ18" sqref="AJ18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="113" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +648,38 @@
     <col min="34" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="5:33" ht="67" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="F5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+    </row>
+    <row r="6" spans="4:33" ht="67" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F6" s="13" t="s">
         <v>0</v>
       </c>
@@ -722,7 +765,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D7" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +857,8 @@
         <v>16.840322579999999</v>
       </c>
     </row>
-    <row r="8" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D8" s="16"/>
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
@@ -900,7 +947,8 @@
         <v>18.677996419999999</v>
       </c>
     </row>
-    <row r="9" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D9" s="16"/>
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
@@ -989,7 +1037,8 @@
         <v>22.167728239999999</v>
       </c>
     </row>
-    <row r="10" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D10" s="16"/>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1078,7 +1127,8 @@
         <v>26.1679198</v>
       </c>
     </row>
-    <row r="11" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D11" s="16"/>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1217,8 @@
         <v>21.178498990000001</v>
       </c>
     </row>
-    <row r="12" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D12" s="16"/>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1307,8 @@
         <v>19.335185190000001</v>
       </c>
     </row>
-    <row r="13" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D13" s="16"/>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1397,8 @@
         <v>25.653562650000001</v>
       </c>
     </row>
-    <row r="14" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D14" s="16"/>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1487,8 @@
         <v>23.305803569999998</v>
       </c>
     </row>
-    <row r="15" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D15" s="16"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1577,8 @@
         <v>25.52811736</v>
       </c>
     </row>
-    <row r="16" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D16" s="16"/>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1612,7 +1667,8 @@
         <v>23.515765770000002</v>
       </c>
     </row>
-    <row r="17" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D17" s="16"/>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1701,7 +1757,8 @@
         <v>23.410313899999998</v>
       </c>
     </row>
-    <row r="18" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D18" s="16"/>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1790,7 +1847,8 @@
         <v>23.253897550000001</v>
       </c>
     </row>
-    <row r="19" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D19" s="16"/>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1879,7 +1937,8 @@
         <v>37.967272729999998</v>
       </c>
     </row>
-    <row r="20" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D20" s="16"/>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1968,7 +2027,8 @@
         <v>18.317543860000001</v>
       </c>
     </row>
-    <row r="21" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D21" s="16"/>
       <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2057,7 +2117,8 @@
         <v>39.10486891</v>
       </c>
     </row>
-    <row r="22" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D22" s="16"/>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2146,7 +2207,8 @@
         <v>23.099557520000001</v>
       </c>
     </row>
-    <row r="23" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D23" s="16"/>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2235,7 +2297,8 @@
         <v>25.159036140000001</v>
       </c>
     </row>
-    <row r="24" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D24" s="16"/>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
@@ -2324,7 +2387,8 @@
         <v>40.945098039999998</v>
       </c>
     </row>
-    <row r="25" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D25" s="16"/>
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2413,7 +2477,8 @@
         <v>24.28139535</v>
       </c>
     </row>
-    <row r="26" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D26" s="16"/>
       <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
@@ -2502,7 +2567,8 @@
         <v>29.411267609999999</v>
       </c>
     </row>
-    <row r="27" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D27" s="16"/>
       <c r="E27" s="1" t="s">
         <v>20</v>
       </c>
@@ -2591,7 +2657,8 @@
         <v>30.890532539999999</v>
       </c>
     </row>
-    <row r="28" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D28" s="16"/>
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
@@ -2680,7 +2747,8 @@
         <v>22.947252750000001</v>
       </c>
     </row>
-    <row r="29" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D29" s="16"/>
       <c r="E29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2769,7 +2837,8 @@
         <v>32.628124999999997</v>
       </c>
     </row>
-    <row r="30" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D30" s="16"/>
       <c r="E30" s="1" t="s">
         <v>23</v>
       </c>
@@ -2858,7 +2927,8 @@
         <v>27.476315790000001</v>
       </c>
     </row>
-    <row r="31" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D31" s="16"/>
       <c r="E31" s="1" t="s">
         <v>24</v>
       </c>
@@ -2947,7 +3017,8 @@
         <v>42.443089430000001</v>
       </c>
     </row>
-    <row r="32" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D32" s="16"/>
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3036,7 +3107,8 @@
         <v>38.670370370000001</v>
       </c>
     </row>
-    <row r="33" spans="5:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="16"/>
       <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3125,7 +3197,8 @@
         <v>30.98219585</v>
       </c>
     </row>
-    <row r="34" spans="5:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="D34" s="16"/>
       <c r="E34" s="14" t="s">
         <v>27</v>
       </c>
@@ -3212,6 +3285,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F5:AF5"/>
+    <mergeCell ref="D7:D34"/>
+  </mergeCells>
   <conditionalFormatting sqref="F33:AE33 AF32 F32:AD32 AE31:AF31 F31:AC31 AD30:AF30 F30:AB30 AC29:AF29 F29:AA29 AB28:AF28 F28:Z28 AA27:AF27 F27:Y27 Z26:AF26 F26:X26 Y25:AF25 F25:W25 X24:AF24 F24:V24 W23:AF23 F23:U23 V22:AF22 F22:T22 U21:AF21 F21:S21 T20:AF20 F20:R20 S19:AF19 F19:Q19 R18:AF18 F18:P18 Q17:AF17 F17:O17 P16:AF16 F16:N16 O15:AF15 F15:M15 N14:AF14 F14:L14 M13:AF13 F13:K13 L12:AF12 F12:J12 K11:AF11 F11:I11 J10:AF10 F10:H10 I9:AF9 F9:G9 H8:AF8 F8 G7:AF7">
     <cfRule type="colorScale" priority="3">
       <colorScale>

--- a/models/report/confusion_matrix.xlsx
+++ b/models/report/confusion_matrix.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakubbednarski/Coding/PyCharmProjects/PSiO/flags/models/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D77ADF-A4C5-8F4B-9726-CE5741D6F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC1C90C-6CB1-C143-860D-ACDB5DC3B2AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4420" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{8B347BB2-54D5-274E-A80F-2E3C00CEB5E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="32">
   <si>
     <t>Austria</t>
   </si>
@@ -130,15 +130,16 @@
   <si>
     <t>P R E D I C T E D</t>
   </si>
+  <si>
+    <t>F1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -282,11 +283,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -300,8 +300,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
@@ -315,12 +313,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Dobry" xfId="1" builtinId="26"/>
     <cellStyle name="Dziesiętny" xfId="2" builtinId="3"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Procentowy" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259450F4-55AB-D64C-8BAD-F3C070991E40}">
-  <dimension ref="D5:AG34"/>
+  <dimension ref="D5:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="113" workbookViewId="0">
-      <selection activeCell="AI14" sqref="AI14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="113" workbookViewId="0">
+      <selection activeCell="W35" activeCellId="3" sqref="F6:F35 K6:K35 U6:U35 W6:W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -643,130 +642,130 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="4" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="32" width="4.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="32" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
     </row>
     <row r="6" spans="4:33" ht="67" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="13" t="s">
+      <c r="R6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="13" t="s">
+      <c r="T6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="V6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="13" t="s">
+      <c r="W6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="13" t="s">
+      <c r="X6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="13" t="s">
+      <c r="Y6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="13" t="s">
+      <c r="Z6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="13" t="s">
+      <c r="AA6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="13" t="s">
+      <c r="AB6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AC6" s="13" t="s">
+      <c r="AC6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AE6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AF6" s="13" t="s">
+      <c r="AF6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AG6" s="15" t="s">
+      <c r="AG6" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -853,12 +852,12 @@
       <c r="AF7" s="3">
         <v>0</v>
       </c>
-      <c r="AG7" s="11">
-        <v>16.840322579999999</v>
+      <c r="AG7" s="17">
+        <v>0.89677419354838706</v>
       </c>
     </row>
     <row r="8" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
@@ -943,12 +942,12 @@
       <c r="AF8" s="5">
         <v>0</v>
       </c>
-      <c r="AG8" s="11">
-        <v>18.677996419999999</v>
+      <c r="AG8" s="17">
+        <v>0.98568872987477596</v>
       </c>
     </row>
     <row r="9" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="1" t="s">
         <v>2</v>
       </c>
@@ -1033,12 +1032,12 @@
       <c r="AF9" s="5">
         <v>0</v>
       </c>
-      <c r="AG9" s="11">
-        <v>22.167728239999999</v>
+      <c r="AG9" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D10" s="16"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1123,12 +1122,12 @@
       <c r="AF10" s="5">
         <v>0</v>
       </c>
-      <c r="AG10" s="11">
-        <v>26.1679198</v>
+      <c r="AG10" s="17">
+        <v>0.97243107769423498</v>
       </c>
     </row>
     <row r="11" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D11" s="16"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1213,12 +1212,12 @@
       <c r="AF11" s="5">
         <v>0</v>
       </c>
-      <c r="AG11" s="11">
-        <v>21.178498990000001</v>
+      <c r="AG11" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D12" s="16"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1303,12 +1302,12 @@
       <c r="AF12" s="5">
         <v>0</v>
       </c>
-      <c r="AG12" s="11">
-        <v>19.335185190000001</v>
+      <c r="AG12" s="17">
+        <v>0.81666666666666599</v>
       </c>
     </row>
     <row r="13" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D13" s="16"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1393,12 +1392,12 @@
       <c r="AF13" s="5">
         <v>0</v>
       </c>
-      <c r="AG13" s="11">
-        <v>25.653562650000001</v>
+      <c r="AG13" s="17">
+        <v>0.97051597051597005</v>
       </c>
     </row>
     <row r="14" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D14" s="16"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1483,12 +1482,12 @@
       <c r="AF14" s="5">
         <v>0</v>
       </c>
-      <c r="AG14" s="11">
-        <v>23.305803569999998</v>
+      <c r="AG14" s="17">
+        <v>0.87276785714285698</v>
       </c>
     </row>
     <row r="15" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D15" s="16"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
@@ -1573,12 +1572,12 @@
       <c r="AF15" s="5">
         <v>0</v>
       </c>
-      <c r="AG15" s="11">
-        <v>25.52811736</v>
+      <c r="AG15" s="17">
+        <v>0.97555012224938797</v>
       </c>
     </row>
     <row r="16" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D16" s="16"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="1" t="s">
         <v>9</v>
       </c>
@@ -1663,12 +1662,12 @@
       <c r="AF16" s="5">
         <v>0</v>
       </c>
-      <c r="AG16" s="11">
-        <v>23.515765770000002</v>
+      <c r="AG16" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D17" s="16"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
@@ -1753,12 +1752,12 @@
       <c r="AF17" s="5">
         <v>0</v>
       </c>
-      <c r="AG17" s="11">
-        <v>23.410313899999998</v>
+      <c r="AG17" s="17">
+        <v>0.98654708520179302</v>
       </c>
     </row>
     <row r="18" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D18" s="16"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1843,12 +1842,12 @@
       <c r="AF18" s="5">
         <v>0</v>
       </c>
-      <c r="AG18" s="11">
-        <v>23.253897550000001</v>
+      <c r="AG18" s="17">
+        <v>0.94654788418708202</v>
       </c>
     </row>
     <row r="19" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D19" s="16"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="1" t="s">
         <v>12</v>
       </c>
@@ -1933,12 +1932,12 @@
       <c r="AF19" s="5">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>37.967272729999998</v>
+      <c r="AG19" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D20" s="16"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
@@ -2023,12 +2022,12 @@
       <c r="AF20" s="5">
         <v>0</v>
       </c>
-      <c r="AG20" s="11">
-        <v>18.317543860000001</v>
+      <c r="AG20" s="17">
+        <v>0.96140350877192904</v>
       </c>
     </row>
     <row r="21" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D21" s="16"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="1" t="s">
         <v>14</v>
       </c>
@@ -2113,12 +2112,12 @@
       <c r="AF21" s="5">
         <v>12</v>
       </c>
-      <c r="AG21" s="11">
-        <v>39.10486891</v>
+      <c r="AG21" s="17">
+        <v>0.95505617977528001</v>
       </c>
     </row>
     <row r="22" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D22" s="16"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2203,12 +2202,12 @@
       <c r="AF22" s="5">
         <v>0</v>
       </c>
-      <c r="AG22" s="11">
-        <v>23.099557520000001</v>
+      <c r="AG22" s="17">
+        <v>0.81637168141592897</v>
       </c>
     </row>
     <row r="23" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D23" s="16"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2293,12 +2292,12 @@
       <c r="AF23" s="5">
         <v>0</v>
       </c>
-      <c r="AG23" s="11">
-        <v>25.159036140000001</v>
+      <c r="AG23" s="17">
+        <v>0.93734939759036096</v>
       </c>
     </row>
     <row r="24" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D24" s="16"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="1" t="s">
         <v>17</v>
       </c>
@@ -2383,12 +2382,12 @@
       <c r="AF24" s="5">
         <v>0</v>
       </c>
-      <c r="AG24" s="11">
-        <v>40.945098039999998</v>
+      <c r="AG24" s="17">
+        <v>0.90196078431372495</v>
       </c>
     </row>
     <row r="25" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D25" s="16"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2473,12 +2472,12 @@
       <c r="AF25" s="5">
         <v>0</v>
       </c>
-      <c r="AG25" s="11">
-        <v>24.28139535</v>
+      <c r="AG25" s="17">
+        <v>0.96279069767441805</v>
       </c>
     </row>
     <row r="26" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D26" s="16"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1" t="s">
         <v>19</v>
       </c>
@@ -2563,12 +2562,12 @@
       <c r="AF26" s="5">
         <v>0</v>
       </c>
-      <c r="AG26" s="11">
-        <v>29.411267609999999</v>
+      <c r="AG26" s="17">
+        <v>0.95492957746478802</v>
       </c>
     </row>
     <row r="27" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D27" s="16"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="1" t="s">
         <v>20</v>
       </c>
@@ -2653,12 +2652,12 @@
       <c r="AF27" s="5">
         <v>0</v>
       </c>
-      <c r="AG27" s="11">
-        <v>30.890532539999999</v>
+      <c r="AG27" s="17">
+        <v>0.97337278106508796</v>
       </c>
     </row>
     <row r="28" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D28" s="16"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
@@ -2743,12 +2742,12 @@
       <c r="AF28" s="5">
         <v>9</v>
       </c>
-      <c r="AG28" s="11">
-        <v>22.947252750000001</v>
+      <c r="AG28" s="17">
+        <v>0.93406593406593397</v>
       </c>
     </row>
     <row r="29" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D29" s="16"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1" t="s">
         <v>22</v>
       </c>
@@ -2833,12 +2832,12 @@
       <c r="AF29" s="5">
         <v>0</v>
       </c>
-      <c r="AG29" s="11">
-        <v>32.628124999999997</v>
+      <c r="AG29" s="17">
+        <v>0.96562499999999996</v>
       </c>
     </row>
     <row r="30" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D30" s="16"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="1" t="s">
         <v>23</v>
       </c>
@@ -2923,12 +2922,12 @@
       <c r="AF30" s="5">
         <v>0</v>
       </c>
-      <c r="AG30" s="11">
-        <v>27.476315790000001</v>
+      <c r="AG30" s="17">
+        <v>0.923684210526315</v>
       </c>
     </row>
     <row r="31" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D31" s="16"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="1" t="s">
         <v>24</v>
       </c>
@@ -3013,12 +3012,12 @@
       <c r="AF31" s="5">
         <v>0</v>
       </c>
-      <c r="AG31" s="11">
-        <v>42.443089430000001</v>
+      <c r="AG31" s="17">
+        <v>0.92682926829268297</v>
       </c>
     </row>
     <row r="32" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D32" s="16"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
@@ -3103,12 +3102,12 @@
       <c r="AF32" s="5">
         <v>0</v>
       </c>
-      <c r="AG32" s="11">
-        <v>38.670370370000001</v>
+      <c r="AG32" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="4:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="16"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="1" t="s">
         <v>26</v>
       </c>
@@ -3193,95 +3192,181 @@
       <c r="AF33" s="10">
         <v>316</v>
       </c>
-      <c r="AG33" s="11">
-        <v>30.98219585</v>
+      <c r="AG33" s="17">
+        <v>0.937685459940652</v>
       </c>
     </row>
     <row r="34" spans="4:33" x14ac:dyDescent="0.2">
-      <c r="D34" s="16"/>
-      <c r="E34" s="14" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="12">
-        <v>16.137557959999999</v>
-      </c>
-      <c r="G34" s="12">
-        <v>18.6114082</v>
-      </c>
-      <c r="H34" s="12">
-        <v>21.572314049999999</v>
-      </c>
-      <c r="I34" s="12">
-        <v>25.159036140000001</v>
-      </c>
-      <c r="J34" s="12">
-        <v>20.757455270000001</v>
-      </c>
-      <c r="K34" s="12">
-        <v>20.001915709999999</v>
-      </c>
-      <c r="L34" s="12">
-        <v>25.219806760000001</v>
-      </c>
-      <c r="M34" s="12">
-        <v>25.52811736</v>
-      </c>
-      <c r="N34" s="12">
-        <v>25.159036140000001</v>
-      </c>
-      <c r="O34" s="12">
-        <v>23.099557520000001</v>
-      </c>
-      <c r="P34" s="12">
-        <v>22.846827130000001</v>
-      </c>
-      <c r="Q34" s="12">
-        <v>22.99779736</v>
-      </c>
-      <c r="R34" s="12">
-        <v>35.273648649999998</v>
-      </c>
-      <c r="S34" s="12">
-        <v>19.052919710000001</v>
-      </c>
-      <c r="T34" s="12">
-        <v>39.251879700000003</v>
-      </c>
-      <c r="U34" s="12">
-        <v>23.253897550000001</v>
-      </c>
-      <c r="V34" s="12">
-        <v>26.840616969999999</v>
-      </c>
-      <c r="W34" s="12">
-        <v>39.10486891</v>
-      </c>
-      <c r="X34" s="12">
-        <v>24.451990630000001</v>
-      </c>
-      <c r="Y34" s="12">
-        <v>30.799410030000001</v>
-      </c>
-      <c r="Z34" s="12">
-        <v>30.799410030000001</v>
-      </c>
-      <c r="AA34" s="12">
-        <v>24.56705882</v>
-      </c>
-      <c r="AB34" s="12">
-        <v>30.52923977</v>
-      </c>
-      <c r="AC34" s="12">
-        <v>28.842541440000002</v>
-      </c>
-      <c r="AD34" s="12">
-        <v>43.504166669999996</v>
-      </c>
-      <c r="AE34" s="12">
-        <v>35.879725090000001</v>
-      </c>
-      <c r="AF34" s="12">
-        <v>30.98219585</v>
+      <c r="F34" s="1">
+        <v>0.85935085007727896</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.982174688057041</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.97314049586776796</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.93493975903614401</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.98011928429423401</v>
+      </c>
+      <c r="K34" s="1">
+        <v>0.84482758620689602</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.95410628019323596</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0.955990220048899</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.96144578313253004</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.98230088495575196</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.96280087527352298</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.93612334801762098</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0.92905405405405395</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.95864661654135297</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.82182628062360796</v>
+      </c>
+      <c r="V34" s="1">
+        <v>1</v>
+      </c>
+      <c r="W34" s="1">
+        <v>0.86142322097378199</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0.96955503512880503</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>0.97050147492625305</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>0.90350877192982404</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>0.96961325966850798</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.92783505154639101</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>0.937685459940652</v>
+      </c>
+    </row>
+    <row r="35" spans="4:33" x14ac:dyDescent="0.2">
+      <c r="E35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0.87766377269139695</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0.98392857142857104</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0.98638743455497302</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0.95331695331695299</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0.98995983935742904</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0.83050847457627097</v>
+      </c>
+      <c r="L35" s="16">
+        <v>0.96224116930572401</v>
+      </c>
+      <c r="M35" s="16">
+        <v>0.91248541423570595</v>
+      </c>
+      <c r="N35" s="16">
+        <v>0.96844660194174703</v>
+      </c>
+      <c r="O35" s="16">
+        <v>0.99107142857142805</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0.97452934662236901</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0.94130675526024299</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0.96322241681260901</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0.98032200357781696</v>
+      </c>
+      <c r="T35" s="16">
+        <v>0.95684803001876095</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0.81908990011098703</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0.96766169154228798</v>
+      </c>
+      <c r="W35" s="16">
+        <v>0.88122605363984596</v>
+      </c>
+      <c r="X35" s="16">
+        <v>0.96616102683780603</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>0.97694524495677204</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>0.97193500738552396</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0.96590909090909005</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>0.93353474320241603</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>0.94609164420485103</v>
+      </c>
+      <c r="AD35" s="16">
+        <v>0.938271604938271</v>
+      </c>
+      <c r="AE35" s="16">
+        <v>0.96256684491978595</v>
+      </c>
+      <c r="AF35" s="16">
+        <v>0.937685459940652</v>
       </c>
     </row>
   </sheetData>
@@ -3290,7 +3375,7 @@
     <mergeCell ref="D7:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="F33:AE33 AF32 F32:AD32 AE31:AF31 F31:AC31 AD30:AF30 F30:AB30 AC29:AF29 F29:AA29 AB28:AF28 F28:Z28 AA27:AF27 F27:Y27 Z26:AF26 F26:X26 Y25:AF25 F25:W25 X24:AF24 F24:V24 W23:AF23 F23:U23 V22:AF22 F22:T22 U21:AF21 F21:S21 T20:AF20 F20:R20 S19:AF19 F19:Q19 R18:AF18 F18:P18 Q17:AF17 F17:O17 P16:AF16 F16:N16 O15:AF15 F15:M15 N14:AF14 F14:L14 M13:AF13 F13:K13 L12:AF12 F12:J12 K11:AF11 F11:I11 J10:AF10 F10:H10 I9:AF9 F9:G9 H8:AF8 F8 G7:AF7">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3300,6 +3385,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG7:AG33">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35:AF35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
